--- a/Code/Results/Cases/Case_2_237/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_237/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.035997840191811</v>
+        <v>0.5042819496927109</v>
       </c>
       <c r="C2">
-        <v>0.1074386619483132</v>
+        <v>0.2208144300982777</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08168413845190869</v>
+        <v>0.1266197142702836</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.2541874326926958</v>
+        <v>0.5236478538078444</v>
       </c>
       <c r="H2">
-        <v>0.2564100958346742</v>
+        <v>0.6775230762775024</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.792415131105912</v>
+        <v>0.2531345300494365</v>
       </c>
       <c r="L2">
-        <v>0.2438954517486849</v>
+        <v>0.18473605578302</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7855657145621784</v>
+        <v>1.494652620132626</v>
       </c>
       <c r="O2">
-        <v>1.023727440322517</v>
+        <v>2.370649466758522</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9017031964542639</v>
+        <v>0.4653848426645766</v>
       </c>
       <c r="C3">
-        <v>0.1099117887943724</v>
+        <v>0.2222145604939225</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07618586676898076</v>
+        <v>0.1260223839050916</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.2533386821948724</v>
+        <v>0.5279957429694946</v>
       </c>
       <c r="H3">
-        <v>0.2611761293407824</v>
+        <v>0.6828266683004927</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6920658351221789</v>
+        <v>0.2217909150135142</v>
       </c>
       <c r="L3">
-        <v>0.2150872923749745</v>
+        <v>0.1776076767126114</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8149105823824989</v>
+        <v>1.508041058822563</v>
       </c>
       <c r="O3">
-        <v>1.031596918802407</v>
+        <v>2.390753126650097</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8193927672716654</v>
+        <v>0.4416086195346622</v>
       </c>
       <c r="C4">
-        <v>0.1115105748961884</v>
+        <v>0.2231267684195046</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07292002679432485</v>
+        <v>0.1257220458618171</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.2534476586529948</v>
+        <v>0.530988532030662</v>
       </c>
       <c r="H4">
-        <v>0.2645084627401033</v>
+        <v>0.686341780868247</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6303859169323829</v>
+        <v>0.2025004094686977</v>
       </c>
       <c r="L4">
-        <v>0.1975738945536989</v>
+        <v>0.1733237322842882</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8338488486859532</v>
+        <v>1.5167465026808</v>
       </c>
       <c r="O4">
-        <v>1.038606888248353</v>
+        <v>2.404316018096949</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7858787731320547</v>
+        <v>0.4319471982964558</v>
       </c>
       <c r="C5">
-        <v>0.1121821521177377</v>
+        <v>0.2235117351988301</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07161560355616459</v>
+        <v>0.1256163904469432</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.2536440383459819</v>
+        <v>0.5322893599235385</v>
       </c>
       <c r="H5">
-        <v>0.265965692186704</v>
+        <v>0.6878393249940444</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6052293356346894</v>
+        <v>0.1946284931477464</v>
       </c>
       <c r="L5">
-        <v>0.1904774049091031</v>
+        <v>0.171601464190104</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8417929178924872</v>
+        <v>1.520416053392044</v>
       </c>
       <c r="O5">
-        <v>1.041991582831358</v>
+        <v>2.410149647956345</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7803152532843285</v>
+        <v>0.4303446142882308</v>
       </c>
       <c r="C6">
-        <v>0.1122948748557508</v>
+        <v>0.2235764587877309</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0714005657327732</v>
+        <v>0.1255998581133895</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.2536856412639494</v>
+        <v>0.532510267607023</v>
       </c>
       <c r="H6">
-        <v>0.2662135801439547</v>
+        <v>0.6880919250974031</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6010506601048604</v>
+        <v>0.1933207262069914</v>
       </c>
       <c r="L6">
-        <v>0.1893013730234543</v>
+        <v>0.1713169039290108</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8431255703551095</v>
+        <v>1.521032751157929</v>
       </c>
       <c r="O6">
-        <v>1.042584944469411</v>
+        <v>2.411136840298127</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.818940683046236</v>
+        <v>0.4414782095700218</v>
       </c>
       <c r="C7">
-        <v>0.1115195509686142</v>
+        <v>0.2231319065935278</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07290232948583153</v>
+        <v>0.1257205531553822</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.2534497001418003</v>
+        <v>0.5310057465322302</v>
       </c>
       <c r="H7">
-        <v>0.2645277171048193</v>
+        <v>0.6863617135775399</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6300467401909629</v>
+        <v>0.2023942893879536</v>
       </c>
       <c r="L7">
-        <v>0.1974780300643033</v>
+        <v>0.1733004099814508</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8339550740824571</v>
+        <v>1.516795497393435</v>
       </c>
       <c r="O7">
-        <v>1.038650422614268</v>
+        <v>2.404393450791872</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9896570564896763</v>
+        <v>0.4908484996780942</v>
       </c>
       <c r="C8">
-        <v>0.1082746575627063</v>
+        <v>0.2212863106680967</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07976470466557117</v>
+        <v>0.12639998668703</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.2537600244150511</v>
+        <v>0.5250799196658562</v>
       </c>
       <c r="H8">
-        <v>0.2579674402329033</v>
+        <v>0.6792980999119465</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7578249681320415</v>
+        <v>0.2423369871155785</v>
       </c>
       <c r="L8">
-        <v>0.2339238529310421</v>
+        <v>0.1822589716550169</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7954898082694015</v>
+        <v>1.499168365497436</v>
       </c>
       <c r="O8">
-        <v>1.025976721387991</v>
+        <v>2.377328214929719</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.326033333066391</v>
+        <v>0.5884830416406146</v>
       </c>
       <c r="C9">
-        <v>0.1025541278537183</v>
+        <v>0.2180825892184544</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09415539953140595</v>
+        <v>0.1282582395984733</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.2596733778785207</v>
+        <v>0.5160247508530205</v>
       </c>
       <c r="H9">
-        <v>0.2484560372146376</v>
+        <v>0.6674963284218833</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.00814092373119</v>
+        <v>0.3202843136758986</v>
       </c>
       <c r="L9">
-        <v>0.3069565978544091</v>
+        <v>0.2005600431948409</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.727589638139932</v>
+        <v>1.468444982246787</v>
       </c>
       <c r="O9">
-        <v>1.019329763650049</v>
+        <v>2.333924146883263</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.574808295411884</v>
+        <v>0.660684961709137</v>
       </c>
       <c r="C10">
-        <v>0.09875102857585816</v>
+        <v>0.2159803544268719</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1053852046971713</v>
+        <v>0.1299428469724013</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.2676959697960299</v>
+        <v>0.5109377686519991</v>
       </c>
       <c r="H10">
-        <v>0.2437042417150153</v>
+        <v>0.6600717386517232</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.192291719078526</v>
+        <v>0.3772989872168182</v>
       </c>
       <c r="L10">
-        <v>0.3618257073758997</v>
+        <v>0.2144493223464536</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6826210196639124</v>
+        <v>1.448209592742352</v>
       </c>
       <c r="O10">
-        <v>1.026889489138412</v>
+        <v>2.307927773902719</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.688496004879909</v>
+        <v>0.6936275992262608</v>
       </c>
       <c r="C11">
-        <v>0.09710950412342001</v>
+        <v>0.2150782408726961</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1106570602994843</v>
+        <v>0.1307783164475005</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.2722480207513911</v>
+        <v>0.5089640175233257</v>
       </c>
       <c r="H11">
-        <v>0.242072984561851</v>
+        <v>0.6569639552394975</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.276215505648707</v>
+        <v>0.4031772148407242</v>
       </c>
       <c r="L11">
-        <v>0.3871111610980336</v>
+        <v>0.2208635360514393</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6633077023872893</v>
+        <v>1.439510224517832</v>
       </c>
       <c r="O11">
-        <v>1.033344569586205</v>
+        <v>2.297380323059002</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.731634655589573</v>
+        <v>0.7061154958975635</v>
       </c>
       <c r="C12">
-        <v>0.09650079177357185</v>
+        <v>0.2147444004472234</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1126786444203489</v>
+        <v>0.1311046007334689</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.2741107057574297</v>
+        <v>0.5082655826328519</v>
       </c>
       <c r="H12">
-        <v>0.2415355161366008</v>
+        <v>0.6558258458589137</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.308025385489884</v>
+        <v>0.4129678007065252</v>
       </c>
       <c r="L12">
-        <v>0.3967381420902285</v>
+        <v>0.2233061302422783</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6561654627724813</v>
+        <v>1.43628866115106</v>
       </c>
       <c r="O12">
-        <v>1.036250423318776</v>
+        <v>2.293570072974376</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.722339863968102</v>
+        <v>0.7034254280827668</v>
       </c>
       <c r="C13">
-        <v>0.09663131252897728</v>
+        <v>0.2148159537454646</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1122421082433789</v>
+        <v>0.1310338893168499</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.2737032134091493</v>
+        <v>0.5084138239572482</v>
       </c>
       <c r="H13">
-        <v>0.2416476342824012</v>
+        <v>0.6560692357342646</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.301173104682107</v>
+        <v>0.4108596297810152</v>
       </c>
       <c r="L13">
-        <v>0.3946624044286438</v>
+        <v>0.2227794678108523</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6576959393009361</v>
+        <v>1.4369792497329</v>
       </c>
       <c r="O13">
-        <v>1.035603613381781</v>
+        <v>2.294382502087004</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.692043214873507</v>
+        <v>0.6946547253577364</v>
       </c>
       <c r="C14">
-        <v>0.09705916553026483</v>
+        <v>0.2150506200261688</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1108228608520108</v>
+        <v>0.1308049616172866</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.2723984265234805</v>
+        <v>0.5089055749631868</v>
       </c>
       <c r="H14">
-        <v>0.2420271346382492</v>
+        <v>0.6568695461121266</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.278831880397036</v>
+        <v>0.4039828747409615</v>
       </c>
       <c r="L14">
-        <v>0.3879021072202562</v>
+        <v>0.2210642164619685</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6627166320700901</v>
+        <v>1.439243727774169</v>
       </c>
       <c r="O14">
-        <v>1.033574223029234</v>
+        <v>2.297063167030672</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.673497448545959</v>
+        <v>0.6892841164073786</v>
       </c>
       <c r="C15">
-        <v>0.09732292253151087</v>
+        <v>0.2151953711254748</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1099568725027886</v>
+        <v>0.1306660264549713</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.2716175789119788</v>
+        <v>0.5092131667389381</v>
       </c>
       <c r="H15">
-        <v>0.2422701632596187</v>
+        <v>0.6573648032818582</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.265151352720522</v>
+        <v>0.399769482241993</v>
       </c>
       <c r="L15">
-        <v>0.3837681510879776</v>
+        <v>0.2200153521988994</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6658144706938174</v>
+        <v>1.440640252414752</v>
       </c>
       <c r="O15">
-        <v>1.032392108694381</v>
+        <v>2.298729093296373</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.567390065386746</v>
+        <v>0.658533978631425</v>
       </c>
       <c r="C16">
-        <v>0.0988601016013817</v>
+        <v>0.2160403983271877</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1050441116542835</v>
+        <v>0.1298896355561077</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.267417413137963</v>
+        <v>0.5110736100093831</v>
       </c>
       <c r="H16">
-        <v>0.243821856060265</v>
+        <v>0.6602802630800682</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.186810829435444</v>
+        <v>0.3756065657789804</v>
       </c>
       <c r="L16">
-        <v>0.3601802220685499</v>
+        <v>0.2140320580244719</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6839067754514048</v>
+        <v>1.448788291966572</v>
       </c>
       <c r="O16">
-        <v>1.026530661573361</v>
+        <v>2.30864280025304</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.502438457303242</v>
+        <v>0.6396941971044328</v>
       </c>
       <c r="C17">
-        <v>0.09982590194427488</v>
+        <v>0.2165726608391942</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1020733515694019</v>
+        <v>0.1294310294532188</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.2650782466438955</v>
+        <v>0.5123021309401423</v>
       </c>
       <c r="H17">
-        <v>0.2449123725099582</v>
+        <v>0.6621378500119235</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.138795942681128</v>
+        <v>0.3607681140563557</v>
       </c>
       <c r="L17">
-        <v>0.3457966653735269</v>
+        <v>0.2103859799249506</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6953034021689497</v>
+        <v>1.453916374146083</v>
       </c>
       <c r="O17">
-        <v>1.023726594146751</v>
+        <v>2.315051977939831</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.465128008148611</v>
+        <v>0.6288672897312324</v>
       </c>
       <c r="C18">
-        <v>0.1003897267446732</v>
+        <v>0.2168839074809839</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1003799145139865</v>
+        <v>0.1291737603646261</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.2638171932521729</v>
+        <v>0.5130407759291558</v>
       </c>
       <c r="H18">
-        <v>0.2455892764582899</v>
+        <v>0.6632316727742165</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.111192919748277</v>
+        <v>0.3522280021059885</v>
       </c>
       <c r="L18">
-        <v>0.3375539084190393</v>
+        <v>0.2082978871221428</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7019656015039999</v>
+        <v>1.456913522836668</v>
       </c>
       <c r="O18">
-        <v>1.022395907574989</v>
+        <v>2.318858699078362</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.452503192884251</v>
+        <v>0.6252030957989234</v>
       </c>
       <c r="C19">
-        <v>0.100582052425473</v>
+        <v>0.2169901674805033</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09980911577344287</v>
+        <v>0.1290877723459154</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.2634044434631733</v>
+        <v>0.5132963687412797</v>
       </c>
       <c r="H19">
-        <v>0.2458268771956469</v>
+        <v>0.6636063840386655</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.101849163571018</v>
+        <v>0.349335552895667</v>
       </c>
       <c r="L19">
-        <v>0.3347681016063149</v>
+        <v>0.2075924502092192</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7042395082512165</v>
+        <v>1.457936484350668</v>
       </c>
       <c r="O19">
-        <v>1.021992998170674</v>
+        <v>2.320168256391739</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.509347607883086</v>
+        <v>0.6416987738654711</v>
       </c>
       <c r="C20">
-        <v>0.09972222835885347</v>
+        <v>0.216515472586611</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1023880017134609</v>
+        <v>0.1294791754224462</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.2653184580620191</v>
+        <v>0.512168037274094</v>
       </c>
       <c r="H20">
-        <v>0.2447911165951098</v>
+        <v>0.6619374794633259</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.14390571902112</v>
+        <v>0.3623482585352349</v>
       </c>
       <c r="L20">
-        <v>0.3473246487982777</v>
+        <v>0.2107731769622347</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6940790721669714</v>
+        <v>1.453365553708807</v>
       </c>
       <c r="O20">
-        <v>1.023995695747502</v>
+        <v>2.314357256128091</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.700939590338862</v>
+        <v>0.6972305405673751</v>
       </c>
       <c r="C21">
-        <v>0.09693314333908987</v>
+        <v>0.2149814821568796</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1112390285431601</v>
+        <v>0.1308719345231033</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.2727778282840632</v>
+        <v>0.5087598060964496</v>
       </c>
       <c r="H21">
-        <v>0.241913455187337</v>
+        <v>0.6566334244726377</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.285393166764067</v>
+        <v>0.4060029916663268</v>
       </c>
       <c r="L21">
-        <v>0.3898863183765968</v>
+        <v>0.2215676573134715</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6612372270117248</v>
+        <v>1.438576622943216</v>
       </c>
       <c r="O21">
-        <v>1.034157551314337</v>
+        <v>2.296270801346125</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.826673181154121</v>
+        <v>0.7336005298055568</v>
       </c>
       <c r="C22">
-        <v>0.09518557237144165</v>
+        <v>0.214024211552811</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1171717302554569</v>
+        <v>0.1318399323244179</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.2784673310574703</v>
+        <v>0.5068178521533824</v>
       </c>
       <c r="H22">
-        <v>0.2405025361059288</v>
+        <v>0.6533927094787586</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.378040904261184</v>
+        <v>0.4344815151584385</v>
       </c>
       <c r="L22">
-        <v>0.4180081305744068</v>
+        <v>0.2287021005824386</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.640775106012633</v>
+        <v>1.429334929365865</v>
       </c>
       <c r="O22">
-        <v>1.043502676665383</v>
+        <v>2.28552182288594</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.7595149582055</v>
+        <v>0.7141824231125042</v>
       </c>
       <c r="C23">
-        <v>0.09611134099678154</v>
+        <v>0.2145309895753442</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1139911836937202</v>
+        <v>0.1313180199620376</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.2753530613762081</v>
+        <v>0.5078281708403409</v>
       </c>
       <c r="H23">
-        <v>0.2412112039993275</v>
+        <v>0.655101693838489</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.328574094122416</v>
+        <v>0.4192869785402706</v>
       </c>
       <c r="L23">
-        <v>0.4029692675564291</v>
+        <v>0.2248870683566224</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6516020635036064</v>
+        <v>1.434228635543995</v>
       </c>
       <c r="O23">
-        <v>1.038258020429467</v>
+        <v>2.291160705552272</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.506223885021967</v>
+        <v>0.6407924911503642</v>
       </c>
       <c r="C24">
-        <v>0.09976907249528466</v>
+        <v>0.2165413110654271</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1022457033741233</v>
+        <v>0.129457388724628</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.265209598256952</v>
+        <v>0.5122285602503638</v>
       </c>
       <c r="H24">
-        <v>0.2448457811053331</v>
+        <v>0.6620279863981438</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.141595585438608</v>
+        <v>0.3616339041037691</v>
       </c>
       <c r="L24">
-        <v>0.3466337652081677</v>
+        <v>0.210598099986413</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6946322492589587</v>
+        <v>1.453614427162545</v>
       </c>
       <c r="O24">
-        <v>1.023873160466508</v>
+        <v>2.31467095984182</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.23479710706178</v>
+        <v>0.5619856520685005</v>
       </c>
       <c r="C25">
-        <v>0.1040320717437737</v>
+        <v>0.218904981958115</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09015358714485089</v>
+        <v>0.1276993613218522</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.2574613105144863</v>
+        <v>0.5181995726129216</v>
       </c>
       <c r="H25">
-        <v>0.2506509355726223</v>
+        <v>0.6704699254214717</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9404115405801861</v>
+        <v>0.2992404166050733</v>
       </c>
       <c r="L25">
-        <v>0.2870060866869864</v>
+        <v>0.1955309763958439</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7451195831943984</v>
+        <v>1.476345635886197</v>
       </c>
       <c r="O25">
-        <v>1.019044375167866</v>
+        <v>2.344631080348435</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_237/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_237/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5042819496927109</v>
+        <v>1.035997840191783</v>
       </c>
       <c r="C2">
-        <v>0.2208144300982777</v>
+        <v>0.1074386619483185</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1266197142702836</v>
+        <v>0.08168413845192291</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.5236478538078444</v>
+        <v>0.2541874326927527</v>
       </c>
       <c r="H2">
-        <v>0.6775230762775024</v>
+        <v>0.256410095834795</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2531345300494365</v>
+        <v>0.7924151311057699</v>
       </c>
       <c r="L2">
-        <v>0.18473605578302</v>
+        <v>0.2438954517486991</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.494652620132626</v>
+        <v>0.7855657145622352</v>
       </c>
       <c r="O2">
-        <v>2.370649466758522</v>
+        <v>1.023727440322403</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4653848426645766</v>
+        <v>0.901703196454406</v>
       </c>
       <c r="C3">
-        <v>0.2222145604939225</v>
+        <v>0.1099117887948502</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1260223839050916</v>
+        <v>0.07618586676898076</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.5279957429694946</v>
+        <v>0.2533386821948227</v>
       </c>
       <c r="H3">
-        <v>0.6828266683004927</v>
+        <v>0.2611761293407824</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2217909150135142</v>
+        <v>0.692065835122051</v>
       </c>
       <c r="L3">
-        <v>0.1776076767126114</v>
+        <v>0.2150872923749461</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.508041058822563</v>
+        <v>0.814910582382506</v>
       </c>
       <c r="O3">
-        <v>2.390753126650097</v>
+        <v>1.031596918802393</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4416086195346622</v>
+        <v>0.8193927672716939</v>
       </c>
       <c r="C4">
-        <v>0.2231267684195046</v>
+        <v>0.1115105748961867</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1257220458618171</v>
+        <v>0.07292002679434262</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.530988532030662</v>
+        <v>0.2534476586529237</v>
       </c>
       <c r="H4">
-        <v>0.686341780868247</v>
+        <v>0.264508462740217</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2025004094686977</v>
+        <v>0.6303859169324966</v>
       </c>
       <c r="L4">
-        <v>0.1733237322842882</v>
+        <v>0.1975738945537131</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.5167465026808</v>
+        <v>0.8338488486859532</v>
       </c>
       <c r="O4">
-        <v>2.404316018096949</v>
+        <v>1.038606888248339</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4319471982964558</v>
+        <v>0.7858787731319978</v>
       </c>
       <c r="C5">
-        <v>0.2235117351988301</v>
+        <v>0.112182152117736</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1256163904469432</v>
+        <v>0.07161560355613261</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.5322893599235385</v>
+        <v>0.2536440383459819</v>
       </c>
       <c r="H5">
-        <v>0.6878393249940444</v>
+        <v>0.265965692186704</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1946284931477464</v>
+        <v>0.6052293356347462</v>
       </c>
       <c r="L5">
-        <v>0.171601464190104</v>
+        <v>0.1904774049092168</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.520416053392044</v>
+        <v>0.8417929178924766</v>
       </c>
       <c r="O5">
-        <v>2.410149647956345</v>
+        <v>1.041991582831415</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4303446142882308</v>
+        <v>0.7803152532843569</v>
       </c>
       <c r="C6">
-        <v>0.2235764587877309</v>
+        <v>0.1122948748557544</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1255998581133895</v>
+        <v>0.07140056573276254</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.532510267607023</v>
+        <v>0.2536856412638926</v>
       </c>
       <c r="H6">
-        <v>0.6880919250974031</v>
+        <v>0.2662135801439547</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1933207262069914</v>
+        <v>0.6010506601049741</v>
       </c>
       <c r="L6">
-        <v>0.1713169039290108</v>
+        <v>0.1893013730233122</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.521032751157929</v>
+        <v>0.8431255703551237</v>
       </c>
       <c r="O6">
-        <v>2.411136840298127</v>
+        <v>1.042584944469411</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4414782095700218</v>
+        <v>0.818940683046236</v>
       </c>
       <c r="C7">
-        <v>0.2231319065935278</v>
+        <v>0.1115195509685218</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1257205531553822</v>
+        <v>0.07290232948582442</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.5310057465322302</v>
+        <v>0.2534497001417861</v>
       </c>
       <c r="H7">
-        <v>0.6863617135775399</v>
+        <v>0.2645277171046985</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2023942893879536</v>
+        <v>0.6300467401909913</v>
       </c>
       <c r="L7">
-        <v>0.1733004099814508</v>
+        <v>0.1974780300643602</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.516795497393435</v>
+        <v>0.8339550740824606</v>
       </c>
       <c r="O7">
-        <v>2.404393450791872</v>
+        <v>1.038650422614253</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4908484996780942</v>
+        <v>0.9896570564898468</v>
       </c>
       <c r="C8">
-        <v>0.2212863106680967</v>
+        <v>0.1082746575626459</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.12639998668703</v>
+        <v>0.07976470466558183</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.5250799196658562</v>
+        <v>0.2537600244149303</v>
       </c>
       <c r="H8">
-        <v>0.6792980999119465</v>
+        <v>0.2579674402328962</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2423369871155785</v>
+        <v>0.7578249681319704</v>
       </c>
       <c r="L8">
-        <v>0.1822589716550169</v>
+        <v>0.2339238529310279</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.499168365497436</v>
+        <v>0.7954898082693838</v>
       </c>
       <c r="O8">
-        <v>2.377328214929719</v>
+        <v>1.025976721388048</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5884830416406146</v>
+        <v>1.326033333066363</v>
       </c>
       <c r="C9">
-        <v>0.2180825892184544</v>
+        <v>0.1025541278537112</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1282582395984733</v>
+        <v>0.09415539953141305</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.5160247508530205</v>
+        <v>0.2596733778784639</v>
       </c>
       <c r="H9">
-        <v>0.6674963284218833</v>
+        <v>0.2484560372146376</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3202843136758986</v>
+        <v>1.00814092373119</v>
       </c>
       <c r="L9">
-        <v>0.2005600431948409</v>
+        <v>0.306956597854537</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.468444982246787</v>
+        <v>0.7275896381399285</v>
       </c>
       <c r="O9">
-        <v>2.333924146883263</v>
+        <v>1.019329763650049</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.660684961709137</v>
+        <v>1.574808295411771</v>
       </c>
       <c r="C10">
-        <v>0.2159803544268719</v>
+        <v>0.09875102857592211</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1299428469724013</v>
+        <v>0.1053852046972032</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.5109377686519991</v>
+        <v>0.267695969795966</v>
       </c>
       <c r="H10">
-        <v>0.6600717386517232</v>
+        <v>0.2437042417150153</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3772989872168182</v>
+        <v>1.192291719078526</v>
       </c>
       <c r="L10">
-        <v>0.2144493223464536</v>
+        <v>0.3618257073759423</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.448209592742352</v>
+        <v>0.6826210196638698</v>
       </c>
       <c r="O10">
-        <v>2.307927773902719</v>
+        <v>1.026889489138426</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6936275992262608</v>
+        <v>1.688496004879738</v>
       </c>
       <c r="C11">
-        <v>0.2150782408726961</v>
+        <v>0.0971095041233454</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1307783164475005</v>
+        <v>0.1106570602994701</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.5089640175233257</v>
+        <v>0.2722480207514195</v>
       </c>
       <c r="H11">
-        <v>0.6569639552394975</v>
+        <v>0.2420729845619647</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4031772148407242</v>
+        <v>1.276215505648793</v>
       </c>
       <c r="L11">
-        <v>0.2208635360514393</v>
+        <v>0.3871111610980051</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.439510224517832</v>
+        <v>0.6633077023873</v>
       </c>
       <c r="O11">
-        <v>2.297380323059002</v>
+        <v>1.033344569586276</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7061154958975635</v>
+        <v>1.731634655589573</v>
       </c>
       <c r="C12">
-        <v>0.2147444004472234</v>
+        <v>0.09650079177341198</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1311046007334689</v>
+        <v>0.1126786444203418</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.5082655826328519</v>
+        <v>0.2741107057574226</v>
       </c>
       <c r="H12">
-        <v>0.6558258458589137</v>
+        <v>0.2415355161365866</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4129678007065252</v>
+        <v>1.308025385489884</v>
       </c>
       <c r="L12">
-        <v>0.2233061302422783</v>
+        <v>0.3967381420902711</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.43628866115106</v>
+        <v>0.6561654627724671</v>
       </c>
       <c r="O12">
-        <v>2.293570072974376</v>
+        <v>1.036250423318748</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7034254280827668</v>
+        <v>1.722339863968102</v>
       </c>
       <c r="C13">
-        <v>0.2148159537454646</v>
+        <v>0.0966313125287499</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1310338893168499</v>
+        <v>0.1122421082433789</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.5084138239572482</v>
+        <v>0.2737032134090853</v>
       </c>
       <c r="H13">
-        <v>0.6560692357342646</v>
+        <v>0.2416476342824012</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4108596297810152</v>
+        <v>1.301173104682164</v>
       </c>
       <c r="L13">
-        <v>0.2227794678108523</v>
+        <v>0.3946624044286722</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.4369792497329</v>
+        <v>0.6576959393009432</v>
       </c>
       <c r="O13">
-        <v>2.294382502087004</v>
+        <v>1.035603613381838</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6946547253577364</v>
+        <v>1.69204321487365</v>
       </c>
       <c r="C14">
-        <v>0.2150506200261688</v>
+        <v>0.09705916553033944</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1308049616172866</v>
+        <v>0.1108228608519966</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.5089055749631868</v>
+        <v>0.2723984265235018</v>
       </c>
       <c r="H14">
-        <v>0.6568695461121266</v>
+        <v>0.2420271346382492</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4039828747409615</v>
+        <v>1.278831880397007</v>
       </c>
       <c r="L14">
-        <v>0.2210642164619685</v>
+        <v>0.3879021072202136</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.439243727774169</v>
+        <v>0.6627166320700972</v>
       </c>
       <c r="O14">
-        <v>2.297063167030672</v>
+        <v>1.03357422302922</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6892841164073786</v>
+        <v>1.673497448545959</v>
       </c>
       <c r="C15">
-        <v>0.2151953711254748</v>
+        <v>0.09732292253104902</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1306660264549713</v>
+        <v>0.1099568725027638</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.5092131667389381</v>
+        <v>0.2716175789119646</v>
       </c>
       <c r="H15">
-        <v>0.6573648032818582</v>
+        <v>0.2422701632596187</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.399769482241993</v>
+        <v>1.265151352720409</v>
       </c>
       <c r="L15">
-        <v>0.2200153521988994</v>
+        <v>0.3837681510879207</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.440640252414752</v>
+        <v>0.6658144706938138</v>
       </c>
       <c r="O15">
-        <v>2.298729093296373</v>
+        <v>1.032392108694395</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.658533978631425</v>
+        <v>1.567390065386661</v>
       </c>
       <c r="C16">
-        <v>0.2160403983271877</v>
+        <v>0.09886010160138525</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1298896355561077</v>
+        <v>0.1050441116542871</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.5110736100093831</v>
+        <v>0.2674174131378919</v>
       </c>
       <c r="H16">
-        <v>0.6602802630800682</v>
+        <v>0.2438218560603786</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3756065657789804</v>
+        <v>1.186810829435558</v>
       </c>
       <c r="L16">
-        <v>0.2140320580244719</v>
+        <v>0.3601802220685641</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.448788291966572</v>
+        <v>0.6839067754513444</v>
       </c>
       <c r="O16">
-        <v>2.30864280025304</v>
+        <v>1.026530661573346</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6396941971044328</v>
+        <v>1.502438457303356</v>
       </c>
       <c r="C17">
-        <v>0.2165726608391942</v>
+        <v>0.09982590194434593</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1294310294532188</v>
+        <v>0.1020733515694019</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.5123021309401423</v>
+        <v>0.2650782466439594</v>
       </c>
       <c r="H17">
-        <v>0.6621378500119235</v>
+        <v>0.2449123725099582</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3607681140563557</v>
+        <v>1.138795942681099</v>
       </c>
       <c r="L17">
-        <v>0.2103859799249506</v>
+        <v>0.3457966653736548</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.453916374146083</v>
+        <v>0.6953034021689461</v>
       </c>
       <c r="O17">
-        <v>2.315051977939831</v>
+        <v>1.023726594146751</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6288672897312324</v>
+        <v>1.465128008148611</v>
       </c>
       <c r="C18">
-        <v>0.2168839074809839</v>
+        <v>0.1003897267447442</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1291737603646261</v>
+        <v>0.1003799145139794</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.5130407759291558</v>
+        <v>0.2638171932521445</v>
       </c>
       <c r="H18">
-        <v>0.6632316727742165</v>
+        <v>0.2455892764582899</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3522280021059885</v>
+        <v>1.111192919748106</v>
       </c>
       <c r="L18">
-        <v>0.2082978871221428</v>
+        <v>0.3375539084190962</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.456913522836668</v>
+        <v>0.7019656015039892</v>
       </c>
       <c r="O18">
-        <v>2.318858699078362</v>
+        <v>1.022395907574889</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6252030957989234</v>
+        <v>1.452503192884251</v>
       </c>
       <c r="C19">
-        <v>0.2169901674805033</v>
+        <v>0.1005820524255725</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1290877723459154</v>
+        <v>0.0998091157734784</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.5132963687412797</v>
+        <v>0.263404443463223</v>
       </c>
       <c r="H19">
-        <v>0.6636063840386655</v>
+        <v>0.2458268771955261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.349335552895667</v>
+        <v>1.101849163571046</v>
       </c>
       <c r="L19">
-        <v>0.2075924502092192</v>
+        <v>0.3347681016063291</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.457936484350668</v>
+        <v>0.7042395082511987</v>
       </c>
       <c r="O19">
-        <v>2.320168256391739</v>
+        <v>1.021992998170674</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6416987738654711</v>
+        <v>1.509347607882944</v>
       </c>
       <c r="C20">
-        <v>0.216515472586611</v>
+        <v>0.09972222835878242</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1294791754224462</v>
+        <v>0.102388001713468</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.512168037274094</v>
+        <v>0.2653184580621186</v>
       </c>
       <c r="H20">
-        <v>0.6619374794633259</v>
+        <v>0.2447911165951098</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3623482585352349</v>
+        <v>1.14390571902112</v>
       </c>
       <c r="L20">
-        <v>0.2107731769622347</v>
+        <v>0.3473246487982209</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.453365553708807</v>
+        <v>0.6940790721669536</v>
       </c>
       <c r="O20">
-        <v>2.314357256128091</v>
+        <v>1.023995695747487</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6972305405673751</v>
+        <v>1.700939590338947</v>
       </c>
       <c r="C21">
-        <v>0.2149814821568796</v>
+        <v>0.09693314333909342</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1308719345231033</v>
+        <v>0.111239028543114</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.5087598060964496</v>
+        <v>0.27277782828412</v>
       </c>
       <c r="H21">
-        <v>0.6566334244726377</v>
+        <v>0.2419134551874507</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4060029916663268</v>
+        <v>1.285393166764209</v>
       </c>
       <c r="L21">
-        <v>0.2215676573134715</v>
+        <v>0.389886318376611</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.438576622943216</v>
+        <v>0.6612372270117248</v>
       </c>
       <c r="O21">
-        <v>2.296270801346125</v>
+        <v>1.034157551314337</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7336005298055568</v>
+        <v>1.826673181154092</v>
       </c>
       <c r="C22">
-        <v>0.214024211552811</v>
+        <v>0.09518557237144876</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1318399323244179</v>
+        <v>0.1171717302554711</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.5068178521533824</v>
+        <v>0.2784673310574703</v>
       </c>
       <c r="H22">
-        <v>0.6533927094787586</v>
+        <v>0.240502536105943</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4344815151584385</v>
+        <v>1.378040904261212</v>
       </c>
       <c r="L22">
-        <v>0.2287021005824386</v>
+        <v>0.4180081305744352</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.429334929365865</v>
+        <v>0.640775106012633</v>
       </c>
       <c r="O22">
-        <v>2.28552182288594</v>
+        <v>1.043502676665412</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7141824231125042</v>
+        <v>1.759514958205358</v>
       </c>
       <c r="C23">
-        <v>0.2145309895753442</v>
+        <v>0.0961113409968597</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1313180199620376</v>
+        <v>0.1139911836936882</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.5078281708403409</v>
+        <v>0.2753530613761583</v>
       </c>
       <c r="H23">
-        <v>0.655101693838489</v>
+        <v>0.2412112039993275</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4192869785402706</v>
+        <v>1.328574094122416</v>
       </c>
       <c r="L23">
-        <v>0.2248870683566224</v>
+        <v>0.4029692675564434</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.434228635543995</v>
+        <v>0.6516020635036135</v>
       </c>
       <c r="O23">
-        <v>2.291160705552272</v>
+        <v>1.038258020429467</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6407924911503642</v>
+        <v>1.506223885021853</v>
       </c>
       <c r="C24">
-        <v>0.2165413110654271</v>
+        <v>0.09976907249551914</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.129457388724628</v>
+        <v>0.1022457033741198</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.5122285602503638</v>
+        <v>0.2652095982570017</v>
       </c>
       <c r="H24">
-        <v>0.6620279863981438</v>
+        <v>0.2448457811053331</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3616339041037691</v>
+        <v>1.141595585438608</v>
       </c>
       <c r="L24">
-        <v>0.210598099986413</v>
+        <v>0.3466337652081251</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.453614427162545</v>
+        <v>0.6946322492589623</v>
       </c>
       <c r="O24">
-        <v>2.31467095984182</v>
+        <v>1.023873160466508</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5619856520685005</v>
+        <v>1.234797107061496</v>
       </c>
       <c r="C25">
-        <v>0.218904981958115</v>
+        <v>0.1040320717439442</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1276993613218522</v>
+        <v>0.09015358714484023</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.5181995726129216</v>
+        <v>0.2574613105144294</v>
       </c>
       <c r="H25">
-        <v>0.6704699254214717</v>
+        <v>0.2506509355726223</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2992404166050733</v>
+        <v>0.9404115405802145</v>
       </c>
       <c r="L25">
-        <v>0.1955309763958439</v>
+        <v>0.2870060866869295</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.476345635886197</v>
+        <v>0.7451195831944091</v>
       </c>
       <c r="O25">
-        <v>2.344631080348435</v>
+        <v>1.01904437516788</v>
       </c>
     </row>
   </sheetData>
